--- a/R/analysis/data/Pt_06_Control.xlsx
+++ b/R/analysis/data/Pt_06_Control.xlsx
@@ -521,10 +521,10 @@
         <v>2.8</v>
       </c>
       <c r="M2" t="n">
-        <v>2.52</v>
+        <v>1.73</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.33</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
         <v>0.52</v>
@@ -575,10 +575,10 @@
         <v>1.65</v>
       </c>
       <c r="K3" t="n">
-        <v>1.72</v>
+        <v>1.07</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.57</v>
+        <v>2.86</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="n">
@@ -633,16 +633,16 @@
         <v>1.44</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>0.04</v>
       </c>
       <c r="L4" t="n">
-        <v>0.11</v>
+        <v>2.83</v>
       </c>
       <c r="M4" t="n">
-        <v>3.06</v>
+        <v>0.71</v>
       </c>
       <c r="N4" t="n">
-        <v>0.84</v>
+        <v>2.5</v>
       </c>
       <c r="O4" t="n">
         <v>0.27</v>
@@ -702,7 +702,7 @@
         <v>0.58</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.67</v>
+        <v>1.67</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>1.6</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.38</v>
+        <v>3.38</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="e">
@@ -807,14 +807,14 @@
         <v>1.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4.51</v>
+        <v>0.27</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.19</v>
+        <v>3.19</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>-1.67</v>
+        <v>1.67</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>2.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.41</v>
+        <v>0.58</v>
       </c>
       <c r="N8" t="n">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="O8" t="n">
         <v>0.46</v>
@@ -928,7 +928,7 @@
         <v>1.69</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.38</v>
+        <v>3.38</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="e">
@@ -981,14 +981,14 @@
         <v>1.33</v>
       </c>
       <c r="K10" t="n">
-        <v>4.16</v>
+        <v>0.62</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.44</v>
+        <v>2.94</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="O10" t="n">
         <v>0.18</v>
@@ -1048,7 +1048,7 @@
         <v>0.71</v>
       </c>
       <c r="N11" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="O11" t="n">
         <v>0.46</v>
@@ -1104,7 +1104,7 @@
         <v>0.98</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.83</v>
+        <v>3.83</v>
       </c>
       <c r="M12" t="n">
         <v>1.41</v>
@@ -1161,16 +1161,16 @@
         <v>1.83</v>
       </c>
       <c r="K13" t="n">
-        <v>5.42</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="M13" t="n">
-        <v>2.47</v>
+        <v>0.35</v>
       </c>
       <c r="N13" t="n">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="O13" t="n">
         <v>0.18</v>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0.46</v>
@@ -1279,10 +1279,10 @@
         <v>1.18</v>
       </c>
       <c r="K15" t="n">
-        <v>3.16</v>
+        <v>1.21</v>
       </c>
       <c r="L15" t="n">
-        <v>-2</v>
+        <v>3.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.41</v>
@@ -1339,16 +1339,16 @@
         <v>1.46</v>
       </c>
       <c r="K16" t="n">
-        <v>3.94</v>
+        <v>0.17</v>
       </c>
       <c r="L16" t="n">
-        <v>0.78</v>
+        <v>3.45</v>
       </c>
       <c r="M16" t="n">
-        <v>3.54</v>
+        <v>0.71</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="O16" t="n">
         <v>0.09</v>
@@ -1410,7 +1410,7 @@
         <v>1.41</v>
       </c>
       <c r="N17" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>0.52</v>
@@ -1461,10 +1461,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K18" t="n">
-        <v>1.77</v>
+        <v>1.25</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.62</v>
+        <v>2.88</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="e">
@@ -1517,14 +1517,14 @@
         <v>0.91</v>
       </c>
       <c r="K19" t="n">
-        <v>4.68</v>
+        <v>0.79</v>
       </c>
       <c r="L19" t="n">
-        <v>0.69</v>
+        <v>3.44</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
         <v>0.27</v>
@@ -1584,7 +1584,7 @@
         <v>0.71</v>
       </c>
       <c r="N20" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>1.3</v>
       </c>
       <c r="L21" t="n">
-        <v>-3.2</v>
+        <v>3.2</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -1695,16 +1695,16 @@
         <v>1.41</v>
       </c>
       <c r="K22" t="n">
-        <v>4.86</v>
+        <v>0.33</v>
       </c>
       <c r="L22" t="n">
-        <v>0.23</v>
+        <v>3.44</v>
       </c>
       <c r="M22" t="n">
-        <v>3.18</v>
+        <v>0.35</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1755,16 +1755,16 @@
         <v>1.3</v>
       </c>
       <c r="K23" t="n">
-        <v>1.64</v>
+        <v>0.84</v>
       </c>
       <c r="L23" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="M23" t="n">
         <v>1.15</v>
       </c>
       <c r="N23" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0.58</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1875,16 +1875,16 @@
         <v>1.2</v>
       </c>
       <c r="K25" t="n">
-        <v>3.04</v>
+        <v>0.21</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.35</v>
+        <v>2.35</v>
       </c>
       <c r="M25" t="n">
-        <v>2.06</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.21</v>
+        <v>1.96</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>1.02</v>
       </c>
       <c r="K26" t="n">
-        <v>1.51</v>
+        <v>0.89</v>
       </c>
       <c r="L26" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1998,7 +1998,7 @@
         <v>1.21</v>
       </c>
       <c r="L27" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>1.12</v>
       </c>
       <c r="K28" t="n">
-        <v>3.07</v>
+        <v>0.47</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.5</v>
+        <v>2.34</v>
       </c>
       <c r="M28" t="n">
-        <v>2.12</v>
+        <v>0.71</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
